--- a/result/结果汇总.xlsx
+++ b/result/结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总体结果" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>总体成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,17 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机设置RS站和蝴蝶站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0818160749_</t>
-  </si>
-  <si>
-    <t>4.38s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耗时（单位 秒）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,9 +69,6 @@
     <t>13.16s</t>
   </si>
   <si>
-    <t>0818161507_</t>
-  </si>
-  <si>
     <t>全部2229个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,12 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0818162002_</t>
-  </si>
-  <si>
-    <t>88.61s</t>
-  </si>
-  <si>
     <t>4.28s</t>
   </si>
   <si>
@@ -170,12 +150,6 @@
     <t>0818193927_</t>
   </si>
   <si>
-    <t>0818194125_</t>
-  </si>
-  <si>
-    <t>4.54s</t>
-  </si>
-  <si>
     <t>0818194441_</t>
   </si>
   <si>
@@ -282,6 +256,36 @@
   </si>
   <si>
     <t>0818202538_</t>
+  </si>
+  <si>
+    <t>15.78s</t>
+  </si>
+  <si>
+    <t>0819113058_</t>
+  </si>
+  <si>
+    <t>118.49s</t>
+  </si>
+  <si>
+    <t>0819113450_</t>
+  </si>
+  <si>
+    <t>0819121306_</t>
+  </si>
+  <si>
+    <t>5.28s</t>
+  </si>
+  <si>
+    <t>0819121457_</t>
+  </si>
+  <si>
+    <t>17.32s</t>
+  </si>
+  <si>
+    <t>0819121812_</t>
+  </si>
+  <si>
+    <t>117.89s</t>
   </si>
 </sst>
 </file>
@@ -324,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -339,7 +343,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -637,7 +647,7 @@
     <col min="6" max="6" width="20.9140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -645,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -653,184 +663,88 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>2990</v>
+        <v>2985</v>
       </c>
       <c r="E2">
-        <v>111.78802080988601</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+        <v>111.727099473858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D3">
-        <v>2920</v>
+        <v>5870</v>
       </c>
       <c r="E3">
-        <v>112.03488622420799</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3060</v>
-      </c>
-      <c r="E4" s="2">
-        <v>111.002612185529</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>111.182295358513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>5840</v>
+      </c>
+      <c r="E4">
+        <v>111.23840307576199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>5845</v>
+        <v>12860</v>
       </c>
       <c r="E5">
-        <v>111.581909167646</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5715</v>
-      </c>
-      <c r="E6" s="2">
-        <v>111.584160364298</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>6010</v>
-      </c>
-      <c r="E7">
-        <v>110.72792484521101</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>12810</v>
-      </c>
-      <c r="E8">
-        <v>110.773183684212</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="2">
-        <v>12570</v>
-      </c>
-      <c r="E9" s="2">
-        <v>111.14300957093501</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="2">
-        <v>13245</v>
-      </c>
-      <c r="E10" s="2">
-        <v>110.121447990069</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>110.67105023492201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>12895</v>
+      </c>
+      <c r="E6">
+        <v>110.64952486649599</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -842,7 +756,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A5:D5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -856,20 +770,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -883,10 +797,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>3060</v>
@@ -894,16 +808,16 @@
       <c r="D3" s="2">
         <v>111.051452548884</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>3070</v>
@@ -911,14 +825,14 @@
       <c r="D4" s="2">
         <v>110.94399288808199</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>3060</v>
@@ -926,14 +840,14 @@
       <c r="D5" s="2">
         <v>111.002612185529</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>3065</v>
@@ -941,14 +855,14 @@
       <c r="D6" s="2">
         <v>111.065753094491</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>3060</v>
@@ -956,14 +870,14 @@
       <c r="D7" s="2">
         <v>111.044817724742</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>2945</v>
@@ -971,16 +885,16 @@
       <c r="D8" s="2">
         <v>112.02519464727</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>34</v>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>2935</v>
@@ -988,14 +902,14 @@
       <c r="D9" s="2">
         <v>112.078041107231</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>2925</v>
@@ -1003,14 +917,14 @@
       <c r="D10" s="2">
         <v>111.96082237476401</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>2935</v>
@@ -1018,14 +932,14 @@
       <c r="D11" s="2">
         <v>111.963800131108</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>2935</v>
@@ -1033,7 +947,7 @@
       <c r="D12" s="2">
         <v>112.16716755176</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1065,20 +979,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1092,10 +1006,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>6010</v>
@@ -1103,16 +1017,16 @@
       <c r="D3">
         <v>110.72792484521101</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>6025</v>
@@ -1120,14 +1034,14 @@
       <c r="D4" s="2">
         <v>110.68167936898099</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>6025</v>
@@ -1135,14 +1049,14 @@
       <c r="D5" s="2">
         <v>110.743342547943</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>6020</v>
@@ -1150,14 +1064,14 @@
       <c r="D6" s="2">
         <v>110.913589074564</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2">
         <v>6020</v>
@@ -1165,14 +1079,14 @@
       <c r="D7" s="2">
         <v>110.809070998008</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>5730</v>
@@ -1180,16 +1094,16 @@
       <c r="D8">
         <v>111.83920281860701</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
         <v>5725</v>
@@ -1197,14 +1111,14 @@
       <c r="D9" s="2">
         <v>111.85078003499601</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>5720</v>
@@ -1212,14 +1126,14 @@
       <c r="D10" s="2">
         <v>111.70893688488199</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2">
         <v>5715</v>
@@ -1227,14 +1141,14 @@
       <c r="D11" s="2">
         <v>111.584160364298</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
         <v>5730</v>
@@ -1242,7 +1156,7 @@
       <c r="D12" s="2">
         <v>111.71720784535199</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1259,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A7:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1274,20 +1188,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1301,10 +1215,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>13250</v>
@@ -1312,16 +1226,16 @@
       <c r="D3" s="2">
         <v>110.02815099119501</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>13275</v>
@@ -1329,14 +1243,14 @@
       <c r="D4" s="2">
         <v>110.080891503912</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2">
         <v>13245</v>
@@ -1344,14 +1258,14 @@
       <c r="D5" s="2">
         <v>109.99646841610399</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2">
         <v>13260</v>
@@ -1359,14 +1273,14 @@
       <c r="D6" s="2">
         <v>109.91780885865199</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2">
         <v>13245</v>
@@ -1374,14 +1288,14 @@
       <c r="D7" s="2">
         <v>110.121447990069</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2">
         <v>12570</v>
@@ -1389,16 +1303,16 @@
       <c r="D8" s="2">
         <v>111.14722499671601</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
+      <c r="E8" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2">
         <v>12580</v>
@@ -1406,14 +1320,14 @@
       <c r="D9" s="2">
         <v>111.257313256725</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2">
         <v>12570</v>
@@ -1421,14 +1335,14 @@
       <c r="D10" s="2">
         <v>111.14300957093501</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2">
         <v>12585</v>
@@ -1436,14 +1350,14 @@
       <c r="D11" s="2">
         <v>111.151871403277</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2">
         <v>12590</v>
@@ -1451,7 +1365,7 @@
       <c r="D12" s="2">
         <v>111.207512063938</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
